--- a/TABLE S4B.xlsx
+++ b/TABLE S4B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documenti\Micaela Gentile\Tesi Francesca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4EB8B7B-A844-46E3-946A-8BD0A593E454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F90DCF-0E08-405D-8CD7-102589C8086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5384,6 +5384,66 @@
     </xf>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="327" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="328" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5394,66 +5454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5806,76 +5806,76 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="310" t="s">
+      <c r="C2" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="311" t="s">
+      <c r="D2" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="312" t="s">
+      <c r="E2" s="308" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="313" t="s">
+      <c r="F2" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="314" t="s">
+      <c r="G2" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="315" t="s">
+      <c r="H2" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="316" t="s">
+      <c r="I2" s="312" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="317" t="s">
+      <c r="J2" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="318" t="s">
+      <c r="K2" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="319" t="s">
+      <c r="L2" s="315" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="320" t="s">
+      <c r="M2" s="316" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="321" t="s">
+      <c r="N2" s="317" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="322" t="s">
+      <c r="O2" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="323" t="s">
+      <c r="P2" s="319" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="324" t="s">
+      <c r="Q2" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="325" t="s">
+      <c r="R2" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="326" t="s">
+      <c r="S2" s="322" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="327" t="s">
+      <c r="T2" s="323" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="328" t="s">
+      <c r="U2" s="324" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="305" t="s">
+      <c r="V2" s="325" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="306" t="s">
+      <c r="W2" s="326" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="307" t="s">
+      <c r="X2" s="327" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="308" t="s">
+      <c r="Y2" s="328" t="s">
         <v>6</v>
       </c>
     </row>
